--- a/Vocabularies.xlsx
+++ b/Vocabularies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Verb</t>
   </si>
@@ -51,13 +51,47 @@
     <t>"she will look elegant in black."
 "I do hope you will study a little of the proprieties and elegancies of life"
 "a handsome, elegantly dressed businessman"</t>
+  </si>
+  <si>
+    <t>premise</t>
+  </si>
+  <si>
+    <t>Theory
+Logic A previous statement or proposition from which another is inferred or follows as a conclusion</t>
+  </si>
+  <si>
+    <t>"if the premise is true, then the conclusion must be true"</t>
+  </si>
+  <si>
+    <t>A period of ten years</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>An unpleasant emotion caused by the threat of danger, pain, or harm</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>wade</t>
+  </si>
+  <si>
+    <t>Walk with effort through water or another liquid or viscous substance:</t>
+  </si>
+  <si>
+    <t>"I waded ditches instead of finding easier crossing places"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +165,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -209,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -433,7 +474,7 @@
     <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="60">
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -471,39 +512,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -511,7 +576,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -519,7 +584,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -527,7 +592,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -535,7 +600,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -543,7 +608,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -551,7 +616,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -559,7 +624,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -567,7 +632,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -575,7 +640,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -583,7 +648,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -591,7 +656,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -599,7 +664,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -607,7 +672,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -615,7 +680,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -623,7 +688,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -631,7 +696,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -639,7 +704,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -647,7 +712,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -655,7 +720,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -663,7 +728,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -671,7 +736,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -679,7 +744,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -687,7 +752,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -695,7 +760,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -703,7 +768,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -711,7 +776,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -719,7 +784,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -727,7 +792,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -735,7 +800,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -743,7 +808,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -751,35 +816,35 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
@@ -790,24 +855,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vocabularies.xlsx
+++ b/Vocabularies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Verb</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>"I waded ditches instead of finding easier crossing places"</t>
+  </si>
+  <si>
+    <t>moisture</t>
+  </si>
+  <si>
+    <t>Water or other liquid diffused in a small quantity as vapour, within a solid, or condensed on a surface.</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="B2:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,12 +574,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
